--- a/Inventaris.xlsx
+++ b/Inventaris.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Componentenlijst</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Breadboard voor op de arduino</t>
   </si>
   <si>
-    <t>(1 op auto en 1 los)</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -69,6 +66,15 @@
   </si>
   <si>
     <t>Raspberry Pi 3 Model B</t>
+  </si>
+  <si>
+    <t>batterij auto oplader</t>
+  </si>
+  <si>
+    <t>(1 op auto en 2 los)</t>
+  </si>
+  <si>
+    <t>arduino kabels</t>
   </si>
 </sst>
 </file>
@@ -105,7 +111,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -128,14 +134,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -156,7 +174,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -194,7 +212,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -300,7 +318,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -450,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,7 +493,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -483,7 +501,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -498,18 +516,18 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -518,7 +536,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -527,7 +545,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>4</v>
@@ -536,7 +554,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
@@ -545,7 +563,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
@@ -554,7 +572,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
@@ -563,12 +581,28 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2"/>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
